--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.047831054212</v>
+        <v>49.64919533333333</v>
       </c>
       <c r="H2">
-        <v>48.047831054212</v>
+        <v>148.947586</v>
       </c>
       <c r="I2">
-        <v>0.3508565634992794</v>
+        <v>0.3395122080556416</v>
       </c>
       <c r="J2">
-        <v>0.3508565634992794</v>
+        <v>0.3481792173559851</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N2">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O2">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P2">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q2">
-        <v>62.8120604695695</v>
+        <v>105.1617951382156</v>
       </c>
       <c r="R2">
-        <v>62.8120604695695</v>
+        <v>946.4561562439401</v>
       </c>
       <c r="S2">
-        <v>0.004585499156817999</v>
+        <v>0.006585289177632928</v>
       </c>
       <c r="T2">
-        <v>0.004585499156817999</v>
+        <v>0.007839438743964746</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.047831054212</v>
+        <v>49.64919533333333</v>
       </c>
       <c r="H3">
-        <v>48.047831054212</v>
+        <v>148.947586</v>
       </c>
       <c r="I3">
-        <v>0.3508565634992794</v>
+        <v>0.3395122080556416</v>
       </c>
       <c r="J3">
-        <v>0.3508565634992794</v>
+        <v>0.3481792173559851</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N3">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O3">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P3">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q3">
-        <v>786.2218078190408</v>
+        <v>897.0559019760082</v>
       </c>
       <c r="R3">
-        <v>786.2218078190408</v>
+        <v>8073.503117784073</v>
       </c>
       <c r="S3">
-        <v>0.05739692998246334</v>
+        <v>0.05617413163449913</v>
       </c>
       <c r="T3">
-        <v>0.05739692998246334</v>
+        <v>0.06687233499780183</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.047831054212</v>
+        <v>49.64919533333333</v>
       </c>
       <c r="H4">
-        <v>48.047831054212</v>
+        <v>148.947586</v>
       </c>
       <c r="I4">
-        <v>0.3508565634992794</v>
+        <v>0.3395122080556416</v>
       </c>
       <c r="J4">
-        <v>0.3508565634992794</v>
+        <v>0.3481792173559851</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N4">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O4">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P4">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q4">
-        <v>898.9344991410492</v>
+        <v>1078.041964777022</v>
       </c>
       <c r="R4">
-        <v>898.9344991410492</v>
+        <v>9702.377682993199</v>
       </c>
       <c r="S4">
-        <v>0.06562534897008995</v>
+        <v>0.0675075779597492</v>
       </c>
       <c r="T4">
-        <v>0.06562534897008995</v>
+        <v>0.08036420389348889</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.047831054212</v>
+        <v>49.64919533333333</v>
       </c>
       <c r="H5">
-        <v>48.047831054212</v>
+        <v>148.947586</v>
       </c>
       <c r="I5">
-        <v>0.3508565634992794</v>
+        <v>0.3395122080556416</v>
       </c>
       <c r="J5">
-        <v>0.3508565634992794</v>
+        <v>0.3481792173559851</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N5">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O5">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P5">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q5">
-        <v>893.2122113385461</v>
+        <v>1088.167041029471</v>
       </c>
       <c r="R5">
-        <v>893.2122113385461</v>
+        <v>9793.50336926524</v>
       </c>
       <c r="S5">
-        <v>0.06520760203268199</v>
+        <v>0.06814161577719352</v>
       </c>
       <c r="T5">
-        <v>0.06520760203268199</v>
+        <v>0.08111899240727113</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.047831054212</v>
+        <v>49.64919533333333</v>
       </c>
       <c r="H6">
-        <v>48.047831054212</v>
+        <v>148.947586</v>
       </c>
       <c r="I6">
-        <v>0.3508565634992794</v>
+        <v>0.3395122080556416</v>
       </c>
       <c r="J6">
-        <v>0.3508565634992794</v>
+        <v>0.3481792173559851</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N6">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O6">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P6">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q6">
-        <v>2164.844442497934</v>
+        <v>2253.311402634162</v>
       </c>
       <c r="R6">
-        <v>2164.844442497934</v>
+        <v>13519.86841580497</v>
       </c>
       <c r="S6">
-        <v>0.1580411833572261</v>
+        <v>0.1411035935065668</v>
       </c>
       <c r="T6">
-        <v>0.1580411833572261</v>
+        <v>0.1119842473134586</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.70847056525603</v>
+        <v>6.239935333333333</v>
       </c>
       <c r="H7">
-        <v>5.70847056525603</v>
+        <v>18.719806</v>
       </c>
       <c r="I7">
-        <v>0.0416845947344161</v>
+        <v>0.04267006159759613</v>
       </c>
       <c r="J7">
-        <v>0.0416845947344161</v>
+        <v>0.04375933559699231</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N7">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O7">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P7">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q7">
-        <v>7.46258031770587</v>
+        <v>13.21678622974889</v>
       </c>
       <c r="R7">
-        <v>7.46258031770587</v>
+        <v>118.95107606774</v>
       </c>
       <c r="S7">
-        <v>0.0005447943515736954</v>
+        <v>0.0008276423886399068</v>
       </c>
       <c r="T7">
-        <v>0.0005447943515736954</v>
+        <v>0.000985264524098455</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.70847056525603</v>
+        <v>6.239935333333333</v>
       </c>
       <c r="H8">
-        <v>5.70847056525603</v>
+        <v>18.719806</v>
       </c>
       <c r="I8">
-        <v>0.0416845947344161</v>
+        <v>0.04267006159759613</v>
       </c>
       <c r="J8">
-        <v>0.0416845947344161</v>
+        <v>0.04375933559699231</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N8">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O8">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P8">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q8">
-        <v>93.40950359722713</v>
+        <v>112.742427770168</v>
       </c>
       <c r="R8">
-        <v>93.40950359722713</v>
+        <v>1014.681849931512</v>
       </c>
       <c r="S8">
-        <v>0.006819219060508054</v>
+        <v>0.007059992542720945</v>
       </c>
       <c r="T8">
-        <v>0.006819219060508054</v>
+        <v>0.008404548012787939</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.70847056525603</v>
+        <v>6.239935333333333</v>
       </c>
       <c r="H9">
-        <v>5.70847056525603</v>
+        <v>18.719806</v>
       </c>
       <c r="I9">
-        <v>0.0416845947344161</v>
+        <v>0.04267006159759613</v>
       </c>
       <c r="J9">
-        <v>0.0416845947344161</v>
+        <v>0.04375933559699231</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N9">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O9">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P9">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q9">
-        <v>106.8006820672087</v>
+        <v>135.488845320962</v>
       </c>
       <c r="R9">
-        <v>106.8006820672087</v>
+        <v>1219.399607888658</v>
       </c>
       <c r="S9">
-        <v>0.007796821723497411</v>
+        <v>0.008484385661251205</v>
       </c>
       <c r="T9">
-        <v>0.007796821723497411</v>
+        <v>0.01010021274349862</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.70847056525603</v>
+        <v>6.239935333333333</v>
       </c>
       <c r="H10">
-        <v>5.70847056525603</v>
+        <v>18.719806</v>
       </c>
       <c r="I10">
-        <v>0.0416845947344161</v>
+        <v>0.04267006159759613</v>
       </c>
       <c r="J10">
-        <v>0.0416845947344161</v>
+        <v>0.04375933559699231</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N10">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O10">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P10">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q10">
-        <v>106.1208280390496</v>
+        <v>136.7613698933378</v>
       </c>
       <c r="R10">
-        <v>106.1208280390496</v>
+        <v>1230.85232904004</v>
       </c>
       <c r="S10">
-        <v>0.007747190011855139</v>
+        <v>0.008564071846559513</v>
       </c>
       <c r="T10">
-        <v>0.007747190011855139</v>
+        <v>0.01019507493582063</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.70847056525603</v>
+        <v>6.239935333333333</v>
       </c>
       <c r="H11">
-        <v>5.70847056525603</v>
+        <v>18.719806</v>
       </c>
       <c r="I11">
-        <v>0.0416845947344161</v>
+        <v>0.04267006159759613</v>
       </c>
       <c r="J11">
-        <v>0.0416845947344161</v>
+        <v>0.04375933559699231</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N11">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O11">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P11">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q11">
-        <v>257.2010121417172</v>
+        <v>283.197287365902</v>
       </c>
       <c r="R11">
-        <v>257.2010121417172</v>
+        <v>1699.183724195412</v>
       </c>
       <c r="S11">
-        <v>0.0187765695869818</v>
+        <v>0.01773396915842456</v>
       </c>
       <c r="T11">
-        <v>0.0187765695869818</v>
+        <v>0.01407423538078667</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.6677687425266</v>
+        <v>30.021123</v>
       </c>
       <c r="H12">
-        <v>27.6677687425266</v>
+        <v>90.06336899999999</v>
       </c>
       <c r="I12">
-        <v>0.2020365549850285</v>
+        <v>0.205291096655437</v>
       </c>
       <c r="J12">
-        <v>0.2020365549850285</v>
+        <v>0.2105317324905372</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N12">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O12">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P12">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q12">
-        <v>36.16957363492268</v>
+        <v>63.58764055589</v>
       </c>
       <c r="R12">
-        <v>36.16957363492268</v>
+        <v>572.28876500301</v>
       </c>
       <c r="S12">
-        <v>0.002640504835623986</v>
+        <v>0.003981892859793383</v>
       </c>
       <c r="T12">
-        <v>0.002640504835623986</v>
+        <v>0.004740233012910954</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.6677687425266</v>
+        <v>30.021123</v>
       </c>
       <c r="H13">
-        <v>27.6677687425266</v>
+        <v>90.06336899999999</v>
       </c>
       <c r="I13">
-        <v>0.2020365549850285</v>
+        <v>0.205291096655437</v>
       </c>
       <c r="J13">
-        <v>0.2020365549850285</v>
+        <v>0.2105317324905372</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N13">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O13">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P13">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q13">
-        <v>452.7364228891969</v>
+        <v>542.4181679137321</v>
       </c>
       <c r="R13">
-        <v>452.7364228891969</v>
+        <v>4881.763511223588</v>
       </c>
       <c r="S13">
-        <v>0.03305133552218013</v>
+        <v>0.03396652259709982</v>
       </c>
       <c r="T13">
-        <v>0.03305133552218013</v>
+        <v>0.04043535007541942</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>27.6677687425266</v>
+        <v>30.021123</v>
       </c>
       <c r="H14">
-        <v>27.6677687425266</v>
+        <v>90.06336899999999</v>
       </c>
       <c r="I14">
-        <v>0.2020365549850285</v>
+        <v>0.205291096655437</v>
       </c>
       <c r="J14">
-        <v>0.2020365549850285</v>
+        <v>0.2105317324905372</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N14">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O14">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P14">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q14">
-        <v>517.64067786642</v>
+        <v>651.8540775222631</v>
       </c>
       <c r="R14">
-        <v>517.64067786642</v>
+        <v>5866.686697700366</v>
       </c>
       <c r="S14">
-        <v>0.03778957216410886</v>
+        <v>0.04081945916253493</v>
       </c>
       <c r="T14">
-        <v>0.03778957216410886</v>
+        <v>0.04859340888982602</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>27.6677687425266</v>
+        <v>30.021123</v>
       </c>
       <c r="H15">
-        <v>27.6677687425266</v>
+        <v>90.06336899999999</v>
       </c>
       <c r="I15">
-        <v>0.2020365549850285</v>
+        <v>0.205291096655437</v>
       </c>
       <c r="J15">
-        <v>0.2020365549850285</v>
+        <v>0.2105317324905372</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N15">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O15">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P15">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q15">
-        <v>514.3455668879619</v>
+        <v>657.97635518494</v>
       </c>
       <c r="R15">
-        <v>514.3455668879619</v>
+        <v>5921.78719666446</v>
       </c>
       <c r="S15">
-        <v>0.03754901758748163</v>
+        <v>0.04120283954113631</v>
       </c>
       <c r="T15">
-        <v>0.03754901758748163</v>
+        <v>0.04904980296951075</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>27.6677687425266</v>
+        <v>30.021123</v>
       </c>
       <c r="H16">
-        <v>27.6677687425266</v>
+        <v>90.06336899999999</v>
       </c>
       <c r="I16">
-        <v>0.2020365549850285</v>
+        <v>0.205291096655437</v>
       </c>
       <c r="J16">
-        <v>0.2020365549850285</v>
+        <v>0.2105317324905372</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N16">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O16">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P16">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q16">
-        <v>1246.599775357104</v>
+        <v>1362.498189983073</v>
       </c>
       <c r="R16">
-        <v>1246.599775357104</v>
+        <v>8174.989139898438</v>
       </c>
       <c r="S16">
-        <v>0.09100612487563386</v>
+        <v>0.0853203824948726</v>
       </c>
       <c r="T16">
-        <v>0.09100612487563386</v>
+        <v>0.06771293754287014</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>44.6867643896176</v>
+        <v>49.40604533333333</v>
       </c>
       <c r="H17">
-        <v>44.6867643896176</v>
+        <v>148.218136</v>
       </c>
       <c r="I17">
-        <v>0.3263132641711363</v>
+        <v>0.3378494944339103</v>
       </c>
       <c r="J17">
-        <v>0.3263132641711363</v>
+        <v>0.3464740582666641</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N17">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O17">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P17">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q17">
-        <v>58.41819881241046</v>
+        <v>104.6467799337155</v>
       </c>
       <c r="R17">
-        <v>58.41819881241046</v>
+        <v>941.82101940344</v>
       </c>
       <c r="S17">
-        <v>0.004264731954254427</v>
+        <v>0.006553038643605311</v>
       </c>
       <c r="T17">
-        <v>0.004264731954254427</v>
+        <v>0.007801046187594043</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>44.6867643896176</v>
+        <v>49.40604533333333</v>
       </c>
       <c r="H18">
-        <v>44.6867643896176</v>
+        <v>148.218136</v>
       </c>
       <c r="I18">
-        <v>0.3263132641711363</v>
+        <v>0.3378494944339103</v>
       </c>
       <c r="J18">
-        <v>0.3263132641711363</v>
+        <v>0.3464740582666641</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N18">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O18">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P18">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q18">
-        <v>731.2236143260575</v>
+        <v>892.6626959814081</v>
       </c>
       <c r="R18">
-        <v>731.2236143260575</v>
+        <v>8033.964263832672</v>
       </c>
       <c r="S18">
-        <v>0.05338187032667051</v>
+        <v>0.05589902667025496</v>
       </c>
       <c r="T18">
-        <v>0.05338187032667051</v>
+        <v>0.06654483707672679</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>44.6867643896176</v>
+        <v>49.40604533333333</v>
       </c>
       <c r="H19">
-        <v>44.6867643896176</v>
+        <v>148.218136</v>
       </c>
       <c r="I19">
-        <v>0.3263132641711363</v>
+        <v>0.3378494944339103</v>
       </c>
       <c r="J19">
-        <v>0.3263132641711363</v>
+        <v>0.3464740582666641</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N19">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O19">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P19">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q19">
-        <v>836.0517693190133</v>
+        <v>1072.762404816872</v>
       </c>
       <c r="R19">
-        <v>836.0517693190133</v>
+        <v>9654.861643351847</v>
       </c>
       <c r="S19">
-        <v>0.0610346907044364</v>
+        <v>0.06717696902498782</v>
       </c>
       <c r="T19">
-        <v>0.0610346907044364</v>
+        <v>0.07997063142880924</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>44.6867643896176</v>
+        <v>49.40604533333333</v>
       </c>
       <c r="H20">
-        <v>44.6867643896176</v>
+        <v>148.218136</v>
       </c>
       <c r="I20">
-        <v>0.3263132641711363</v>
+        <v>0.3378494944339103</v>
       </c>
       <c r="J20">
-        <v>0.3263132641711363</v>
+        <v>0.3464740582666641</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N20">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O20">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P20">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q20">
-        <v>830.7297699448579</v>
+        <v>1082.837894922471</v>
       </c>
       <c r="R20">
-        <v>830.7297699448579</v>
+        <v>9745.541054302239</v>
       </c>
       <c r="S20">
-        <v>0.06064616621629933</v>
+        <v>0.0678079017307727</v>
       </c>
       <c r="T20">
-        <v>0.06064616621629933</v>
+        <v>0.08072172347126109</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>44.6867643896176</v>
+        <v>49.40604533333333</v>
       </c>
       <c r="H21">
-        <v>44.6867643896176</v>
+        <v>148.218136</v>
       </c>
       <c r="I21">
-        <v>0.3263132641711363</v>
+        <v>0.3378494944339103</v>
       </c>
       <c r="J21">
-        <v>0.3263132641711363</v>
+        <v>0.3464740582666641</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N21">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O21">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P21">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q21">
-        <v>2013.408127266502</v>
+        <v>2242.276124743512</v>
       </c>
       <c r="R21">
-        <v>2013.408127266502</v>
+        <v>13453.65674846107</v>
       </c>
       <c r="S21">
-        <v>0.1469858049694756</v>
+        <v>0.1404125583642895</v>
       </c>
       <c r="T21">
-        <v>0.1469858049694756</v>
+        <v>0.111435820102273</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.8335352638875</v>
+        <v>10.9205495</v>
       </c>
       <c r="H22">
-        <v>10.8335352638875</v>
+        <v>21.841099</v>
       </c>
       <c r="I22">
-        <v>0.07910902261013965</v>
+        <v>0.07467713925741501</v>
       </c>
       <c r="J22">
-        <v>0.07910902261013965</v>
+        <v>0.05105565628982123</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N22">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O22">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P22">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q22">
-        <v>14.16248469835691</v>
+        <v>23.13077949411833</v>
       </c>
       <c r="R22">
-        <v>14.16248469835691</v>
+        <v>138.78467696471</v>
       </c>
       <c r="S22">
-        <v>0.001033910703729036</v>
+        <v>0.001448462073822828</v>
       </c>
       <c r="T22">
-        <v>0.001033910703729036</v>
+        <v>0.001149545033320444</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.8335352638875</v>
+        <v>10.9205495</v>
       </c>
       <c r="H23">
-        <v>10.8335352638875</v>
+        <v>21.841099</v>
       </c>
       <c r="I23">
-        <v>0.07910902261013965</v>
+        <v>0.07467713925741501</v>
       </c>
       <c r="J23">
-        <v>0.07910902261013965</v>
+        <v>0.05105565628982123</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N23">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O23">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P23">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q23">
-        <v>177.2725530656037</v>
+        <v>197.311221582258</v>
       </c>
       <c r="R23">
-        <v>177.2725530656037</v>
+        <v>1183.867329493548</v>
       </c>
       <c r="S23">
-        <v>0.0129415137241536</v>
+        <v>0.01235573670460286</v>
       </c>
       <c r="T23">
-        <v>0.0129415137241536</v>
+        <v>0.009805901043929336</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.8335352638875</v>
+        <v>10.9205495</v>
       </c>
       <c r="H24">
-        <v>10.8335352638875</v>
+        <v>21.841099</v>
       </c>
       <c r="I24">
-        <v>0.07910902261013965</v>
+        <v>0.07467713925741501</v>
       </c>
       <c r="J24">
-        <v>0.07910902261013965</v>
+        <v>0.05105565628982123</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N24">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O24">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P24">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q24">
-        <v>202.6863311557513</v>
+        <v>237.1198679129595</v>
       </c>
       <c r="R24">
-        <v>202.6863311557513</v>
+        <v>1422.719207477757</v>
       </c>
       <c r="S24">
-        <v>0.01479680802802999</v>
+        <v>0.0148485759292779</v>
       </c>
       <c r="T24">
-        <v>0.01479680802802999</v>
+        <v>0.01178429661353408</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.8335352638875</v>
+        <v>10.9205495</v>
       </c>
       <c r="H25">
-        <v>10.8335352638875</v>
+        <v>21.841099</v>
       </c>
       <c r="I25">
-        <v>0.07910902261013965</v>
+        <v>0.07467713925741501</v>
       </c>
       <c r="J25">
-        <v>0.07910902261013965</v>
+        <v>0.05105565628982123</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N25">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O25">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P25">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q25">
-        <v>201.3961042019355</v>
+        <v>239.3469210537767</v>
       </c>
       <c r="R25">
-        <v>201.3961042019355</v>
+        <v>1436.08152632266</v>
       </c>
       <c r="S25">
-        <v>0.01470261696719555</v>
+        <v>0.01498803521605559</v>
       </c>
       <c r="T25">
-        <v>0.01470261696719555</v>
+        <v>0.01189497588733971</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.8335352638875</v>
+        <v>10.9205495</v>
       </c>
       <c r="H26">
-        <v>10.8335352638875</v>
+        <v>21.841099</v>
       </c>
       <c r="I26">
-        <v>0.07910902261013965</v>
+        <v>0.07467713925741501</v>
       </c>
       <c r="J26">
-        <v>0.07910902261013965</v>
+        <v>0.05105565628982123</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N26">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O26">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P26">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q26">
-        <v>488.1160729642614</v>
+        <v>495.6253277857246</v>
       </c>
       <c r="R26">
-        <v>488.1160729642614</v>
+        <v>1982.501311142898</v>
       </c>
       <c r="S26">
-        <v>0.03563417318703147</v>
+        <v>0.03103632933365583</v>
       </c>
       <c r="T26">
-        <v>0.03563417318703147</v>
+        <v>0.01642093771169768</v>
       </c>
     </row>
   </sheetData>
